--- a/src/main/resources/DMI_Upload_template.xlsx
+++ b/src/main/resources/DMI_Upload_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgepeter/IdeaProjects/Resmac projects/DMIReport/DMIReport/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A73388-4404-634A-AA3F-FDF018BAB97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF827644-3919-4E49-BAEE-D2717CD35BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="680" windowWidth="33600" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="600" windowWidth="33600" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="382">
   <si>
     <t>M02 DMI Loan Number</t>
   </si>
@@ -2575,183 +2575,19 @@
   <si>
     <t>U = Liability/Condo Contents (355)</t>
   </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>15 Days</t>
-  </si>
-  <si>
-    <t>Fee Simple</t>
-  </si>
-  <si>
-    <t>T74FLOW</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>T74</t>
-  </si>
-  <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>CRDPL</t>
-  </si>
-  <si>
-    <t>Hazard</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Farmers Insurance</t>
-  </si>
-  <si>
-    <t>33713-20-84</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Kin Ling</t>
-  </si>
-  <si>
-    <t>Alice Waikwan</t>
-  </si>
-  <si>
-    <t>Yeung</t>
-  </si>
-  <si>
-    <t>5657 North Rockvale Avenue</t>
-  </si>
-  <si>
-    <t>Azusa</t>
-  </si>
-  <si>
-    <t>21925 Lomita Ave</t>
-  </si>
-  <si>
-    <t>Cupertino</t>
-  </si>
-  <si>
-    <t>KIN</t>
-  </si>
-  <si>
-    <t>LEE</t>
-  </si>
-  <si>
-    <t>Cai</t>
-  </si>
-  <si>
-    <t>Li</t>
-  </si>
-  <si>
-    <t>ALICE</t>
-  </si>
-  <si>
-    <t>YEUNG</t>
-  </si>
-  <si>
-    <t>Qingyi</t>
-  </si>
-  <si>
-    <t>505 E Marshall Street</t>
-  </si>
-  <si>
-    <t>155 Sand Pond Road</t>
-  </si>
-  <si>
-    <t>San Gabriel</t>
-  </si>
-  <si>
-    <t>Warwick</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>353 Main St</t>
-  </si>
-  <si>
-    <t>East Greenwich</t>
-  </si>
-  <si>
-    <t>American Modern Property and Casualty Insurance Company</t>
-  </si>
-  <si>
-    <t>Progressive Home</t>
-  </si>
-  <si>
-    <t>33709-38-12 &amp; 33709-38-27</t>
-  </si>
-  <si>
-    <t>RIA5589</t>
-  </si>
-  <si>
-    <t>100940100220400443</t>
-  </si>
-  <si>
-    <t>100940100220400526</t>
-  </si>
-  <si>
-    <t>100940100220500721</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="00"/>
     <numFmt numFmtId="166" formatCode="000"/>
-    <numFmt numFmtId="167" formatCode="0000"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="169" formatCode="000000"/>
-    <numFmt numFmtId="170" formatCode="000000000"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="59">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3133,31 +2969,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3739,7 +3550,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="343">
+  <cellStyleXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4081,10 +3892,9 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4232,84 +4042,8 @@
     <xf numFmtId="0" fontId="0" fillId="58" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="59" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="60" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="60" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="57" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="341" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="57" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="57" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="62" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="343">
+  <cellStyles count="342">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent1 2 2" xfId="294" xr:uid="{918565EC-536A-4878-A5F7-E011B6AB9764}"/>
@@ -4504,7 +4238,6 @@
     <cellStyle name="Check Cell 6" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
     <cellStyle name="Comma 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
     <cellStyle name="Comma 2 2" xfId="312" xr:uid="{848EF754-5A46-4FEF-BFF5-F268D1FEA430}"/>
-    <cellStyle name="Currency" xfId="341" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
     <cellStyle name="Currency 2 2" xfId="314" xr:uid="{DF0FA941-07B0-477D-80EE-B3A6895F6943}"/>
     <cellStyle name="Currency 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
@@ -4578,7 +4311,7 @@
     <cellStyle name="Normal 12" xfId="275" xr:uid="{9C0F9CFB-8ADE-43B8-A96F-D1256C1EA4F2}"/>
     <cellStyle name="Normal 12 2" xfId="293" xr:uid="{D7FD87F7-7777-42BA-8C74-74F1E7CB2636}"/>
     <cellStyle name="Normal 13" xfId="278" xr:uid="{DCD90125-B26E-4E79-A10A-3EEC30B2F910}"/>
-    <cellStyle name="Normal 14" xfId="342" xr:uid="{28C9092A-57E8-48E7-949C-300AE90EF172}"/>
+    <cellStyle name="Normal 14" xfId="341" xr:uid="{28C9092A-57E8-48E7-949C-300AE90EF172}"/>
     <cellStyle name="Normal 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
     <cellStyle name="Normal 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
     <cellStyle name="Normal 2 2 2" xfId="319" xr:uid="{5D94FE12-F906-4E13-8ABA-6AD67E3A9BEE}"/>
@@ -4654,27 +4387,7 @@
     <cellStyle name="Warning Text 5" xfId="272" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Warning Text 6" xfId="273" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5109,13 +4822,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:HV5"/>
+  <dimension ref="A1:HV2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD8"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="15" customHeight="1"/>
@@ -6664,920 +6377,6 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:230" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="54">
-        <v>9922040052</v>
-      </c>
-      <c r="C3" s="55">
-        <v>401</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="E3" s="55">
-        <v>1</v>
-      </c>
-      <c r="F3" s="55">
-        <v>3</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>406</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="K3" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="N3" s="55" t="s">
-        <v>411</v>
-      </c>
-      <c r="O3" s="55" t="s">
-        <v>402</v>
-      </c>
-      <c r="P3" s="58">
-        <v>91702</v>
-      </c>
-      <c r="Q3" s="58">
-        <v>6262368824</v>
-      </c>
-      <c r="R3" s="59"/>
-      <c r="T3" s="55" t="s">
-        <v>412</v>
-      </c>
-      <c r="U3" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="V3" s="55" t="s">
-        <v>402</v>
-      </c>
-      <c r="W3" s="58">
-        <v>95014</v>
-      </c>
-      <c r="Y3" s="60">
-        <v>612468113</v>
-      </c>
-      <c r="Z3" s="55">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="61">
-        <v>612663528</v>
-      </c>
-      <c r="AB3" s="55">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="55">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="55" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE3" s="55" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF3" s="62">
-        <v>510000</v>
-      </c>
-      <c r="AG3" s="55">
-        <v>360</v>
-      </c>
-      <c r="AH3" s="63">
-        <v>44729</v>
-      </c>
-      <c r="AI3" s="63">
-        <v>55687</v>
-      </c>
-      <c r="AJ3" s="64">
-        <v>44774</v>
-      </c>
-      <c r="AK3" s="55">
-        <v>12</v>
-      </c>
-      <c r="AL3" s="65"/>
-      <c r="AN3" s="55" t="s">
-        <v>383</v>
-      </c>
-      <c r="AP3" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="AQ3" s="57">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="62">
-        <v>680000</v>
-      </c>
-      <c r="AT3" s="62">
-        <v>680000</v>
-      </c>
-      <c r="AW3" s="55">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="55">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="55" t="s">
-        <v>385</v>
-      </c>
-      <c r="AZ3" s="55">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="62">
-        <v>510000</v>
-      </c>
-      <c r="BB3" s="58">
-        <v>5.875</v>
-      </c>
-      <c r="BC3" s="64">
-        <v>44774</v>
-      </c>
-      <c r="BD3" s="66">
-        <v>3016.84</v>
-      </c>
-      <c r="BE3" s="67">
-        <v>708.33</v>
-      </c>
-      <c r="BF3" s="67">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="67">
-        <v>72.55</v>
-      </c>
-      <c r="BH3" s="67">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="66">
-        <v>780.88</v>
-      </c>
-      <c r="BK3" s="66">
-        <v>3797.72</v>
-      </c>
-      <c r="BL3" s="68">
-        <v>832.29</v>
-      </c>
-      <c r="BM3" s="66">
-        <v>3033.84</v>
-      </c>
-      <c r="BN3" s="65"/>
-      <c r="BO3" s="65"/>
-      <c r="BP3" s="68">
-        <v>832.29</v>
-      </c>
-      <c r="BQ3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="66">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="65"/>
-      <c r="BT3" s="65"/>
-      <c r="BU3" s="65"/>
-      <c r="BV3" s="65"/>
-      <c r="BW3" s="65"/>
-      <c r="BX3" s="65"/>
-      <c r="BY3" s="65"/>
-      <c r="BZ3" s="65"/>
-      <c r="CD3" s="55" t="s">
-        <v>386</v>
-      </c>
-      <c r="CE3" s="55" t="s">
-        <v>387</v>
-      </c>
-      <c r="CF3" s="55">
-        <v>9</v>
-      </c>
-      <c r="CJ3" s="55" t="s">
-        <v>388</v>
-      </c>
-      <c r="CK3" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="CL3" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="CN3" s="63">
-        <v>44896</v>
-      </c>
-      <c r="CO3" s="69">
-        <v>1410</v>
-      </c>
-      <c r="CP3" s="70"/>
-      <c r="CS3" s="71"/>
-      <c r="CU3" s="55">
-        <v>0</v>
-      </c>
-      <c r="CW3" s="72"/>
-      <c r="CY3" s="65"/>
-      <c r="CZ3" s="72"/>
-      <c r="DA3" s="73"/>
-      <c r="DD3" s="82" t="s">
-        <v>433</v>
-      </c>
-      <c r="DE3" s="74">
-        <v>44733</v>
-      </c>
-      <c r="DF3" s="55" t="s">
-        <v>394</v>
-      </c>
-      <c r="DG3" s="55" t="s">
-        <v>393</v>
-      </c>
-      <c r="EJ3" s="58">
-        <v>1009401</v>
-      </c>
-      <c r="EL3" s="63">
-        <v>44733</v>
-      </c>
-      <c r="EM3" s="55">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="55" t="s">
-        <v>399</v>
-      </c>
-      <c r="EO3" s="55" t="s">
-        <v>391</v>
-      </c>
-      <c r="EP3" s="75" t="s">
-        <v>398</v>
-      </c>
-      <c r="EQ3" s="74">
-        <v>44676</v>
-      </c>
-      <c r="ER3" s="76">
-        <v>65043</v>
-      </c>
-      <c r="ES3" s="77"/>
-      <c r="ET3" s="78" t="s">
-        <v>403</v>
-      </c>
-      <c r="EU3" s="78" t="s">
-        <v>400</v>
-      </c>
-      <c r="EV3" s="78" t="s">
-        <v>382</v>
-      </c>
-      <c r="EW3" s="74">
-        <v>39717</v>
-      </c>
-      <c r="EY3" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="EZ3" s="55">
-        <v>1429246679</v>
-      </c>
-      <c r="FA3" s="74">
-        <v>39717</v>
-      </c>
-      <c r="FZ3" s="74">
-        <v>26626</v>
-      </c>
-      <c r="GA3" s="74">
-        <v>27996</v>
-      </c>
-      <c r="GD3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="GE3" s="79" t="s">
-        <v>396</v>
-      </c>
-      <c r="GF3" s="55">
-        <v>12</v>
-      </c>
-      <c r="GG3" s="55">
-        <v>6</v>
-      </c>
-      <c r="GH3" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="GI3" s="62">
-        <v>510000</v>
-      </c>
-      <c r="GJ3" s="66">
-        <v>870.6</v>
-      </c>
-      <c r="GK3" s="74">
-        <v>45090</v>
-      </c>
-      <c r="GL3" s="55" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:230" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="58">
-        <v>9922040044</v>
-      </c>
-      <c r="C4" s="55">
-        <v>401</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="E4" s="55">
-        <v>1</v>
-      </c>
-      <c r="F4" s="55">
-        <v>3</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>414</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>415</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>418</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="N4" s="55" t="s">
-        <v>423</v>
-      </c>
-      <c r="O4" s="55" t="s">
-        <v>402</v>
-      </c>
-      <c r="P4" s="58">
-        <v>91776</v>
-      </c>
-      <c r="Q4" s="58">
-        <v>6262368824</v>
-      </c>
-      <c r="R4" s="59"/>
-      <c r="T4" s="55" t="s">
-        <v>412</v>
-      </c>
-      <c r="U4" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="V4" s="55" t="s">
-        <v>402</v>
-      </c>
-      <c r="W4" s="58">
-        <v>95014</v>
-      </c>
-      <c r="Y4" s="60">
-        <v>612468113</v>
-      </c>
-      <c r="Z4" s="55">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="61">
-        <v>612663528</v>
-      </c>
-      <c r="AB4" s="55">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="55">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="55" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE4" s="55" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF4" s="62">
-        <v>647200</v>
-      </c>
-      <c r="AG4" s="55">
-        <v>360</v>
-      </c>
-      <c r="AH4" s="63">
-        <v>44729</v>
-      </c>
-      <c r="AI4" s="63">
-        <v>55687</v>
-      </c>
-      <c r="AJ4" s="64">
-        <v>44774</v>
-      </c>
-      <c r="AK4" s="55">
-        <v>12</v>
-      </c>
-      <c r="AL4" s="65"/>
-      <c r="AN4" s="55" t="s">
-        <v>383</v>
-      </c>
-      <c r="AP4" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="AQ4" s="57">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="62">
-        <v>1200000</v>
-      </c>
-      <c r="AT4" s="62">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="55">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="55">
-        <v>6</v>
-      </c>
-      <c r="AY4" s="55" t="s">
-        <v>385</v>
-      </c>
-      <c r="AZ4" s="55">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="62">
-        <v>647200</v>
-      </c>
-      <c r="BB4" s="58">
-        <v>5.875</v>
-      </c>
-      <c r="BC4" s="64">
-        <v>44774</v>
-      </c>
-      <c r="BD4" s="62">
-        <v>3828.43</v>
-      </c>
-      <c r="BE4" s="62">
-        <v>772.68</v>
-      </c>
-      <c r="BF4" s="67">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="67">
-        <v>93.5</v>
-      </c>
-      <c r="BH4" s="67">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="66">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="66">
-        <v>909.99</v>
-      </c>
-      <c r="BK4" s="66">
-        <v>4738.42</v>
-      </c>
-      <c r="BL4" s="68">
-        <v>1056.19</v>
-      </c>
-      <c r="BM4" s="66">
-        <v>3427.93</v>
-      </c>
-      <c r="BN4" s="65"/>
-      <c r="BO4" s="65"/>
-      <c r="BP4" s="68">
-        <v>1056.19</v>
-      </c>
-      <c r="BQ4" s="80"/>
-      <c r="BR4" s="65"/>
-      <c r="BS4" s="65"/>
-      <c r="BT4" s="65"/>
-      <c r="BU4" s="65"/>
-      <c r="BV4" s="65"/>
-      <c r="BW4" s="65"/>
-      <c r="BX4" s="65"/>
-      <c r="BY4" s="65"/>
-      <c r="BZ4" s="65"/>
-      <c r="CD4" s="55" t="s">
-        <v>386</v>
-      </c>
-      <c r="CE4" s="55" t="s">
-        <v>387</v>
-      </c>
-      <c r="CF4" s="55">
-        <v>9</v>
-      </c>
-      <c r="CJ4" s="55" t="s">
-        <v>388</v>
-      </c>
-      <c r="CK4" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="CL4" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="CN4" s="64">
-        <v>44896</v>
-      </c>
-      <c r="CO4" s="69">
-        <v>1410</v>
-      </c>
-      <c r="CP4" s="70"/>
-      <c r="CS4" s="71"/>
-      <c r="CU4" s="55">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="72"/>
-      <c r="CY4" s="65"/>
-      <c r="CZ4" s="72"/>
-      <c r="DA4" s="73"/>
-      <c r="DD4" s="82" t="s">
-        <v>432</v>
-      </c>
-      <c r="DE4" s="74">
-        <v>44733</v>
-      </c>
-      <c r="DF4" s="55" t="s">
-        <v>394</v>
-      </c>
-      <c r="DG4" s="55" t="s">
-        <v>393</v>
-      </c>
-      <c r="EJ4" s="58">
-        <v>1009401</v>
-      </c>
-      <c r="EL4" s="63">
-        <v>44733</v>
-      </c>
-      <c r="EM4" s="55">
-        <v>0</v>
-      </c>
-      <c r="EN4" s="55" t="s">
-        <v>399</v>
-      </c>
-      <c r="EO4" s="55" t="s">
-        <v>391</v>
-      </c>
-      <c r="EP4" s="75" t="s">
-        <v>398</v>
-      </c>
-      <c r="EQ4" s="74">
-        <v>44676</v>
-      </c>
-      <c r="ER4" s="76">
-        <v>65055</v>
-      </c>
-      <c r="ES4" s="77">
-        <v>1675</v>
-      </c>
-      <c r="ET4" s="55" t="s">
-        <v>403</v>
-      </c>
-      <c r="EU4" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="EV4" s="55" t="s">
-        <v>382</v>
-      </c>
-      <c r="EW4" s="74">
-        <v>44349</v>
-      </c>
-      <c r="EY4" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="EZ4" s="55">
-        <v>1429244024</v>
-      </c>
-      <c r="FA4" s="74">
-        <v>44349</v>
-      </c>
-      <c r="FZ4" s="64">
-        <v>26626</v>
-      </c>
-      <c r="GA4" s="64">
-        <v>27996</v>
-      </c>
-      <c r="GD4" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="GE4" s="79" t="s">
-        <v>396</v>
-      </c>
-      <c r="GF4" s="55">
-        <v>12</v>
-      </c>
-      <c r="GG4" s="55">
-        <v>6</v>
-      </c>
-      <c r="GH4" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="GI4" s="62">
-        <v>647200</v>
-      </c>
-      <c r="GJ4" s="66">
-        <v>1122</v>
-      </c>
-      <c r="GK4" s="74">
-        <v>45023</v>
-      </c>
-      <c r="GL4" s="55" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:230" s="53" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="58">
-        <v>9922050072</v>
-      </c>
-      <c r="C5" s="55">
-        <v>401</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="E5" s="55">
-        <v>1</v>
-      </c>
-      <c r="F5" s="55">
-        <v>3</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>416</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>417</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>417</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>422</v>
-      </c>
-      <c r="N5" s="55" t="s">
-        <v>424</v>
-      </c>
-      <c r="O5" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="P5" s="58">
-        <v>2888</v>
-      </c>
-      <c r="Q5" s="58">
-        <v>3475069528</v>
-      </c>
-      <c r="R5" s="59"/>
-      <c r="T5" s="55" t="s">
-        <v>426</v>
-      </c>
-      <c r="U5" s="55" t="s">
-        <v>427</v>
-      </c>
-      <c r="V5" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="W5" s="58">
-        <v>2818</v>
-      </c>
-      <c r="Y5" s="60">
-        <v>82373999</v>
-      </c>
-      <c r="Z5" s="55">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="61">
-        <v>355270584</v>
-      </c>
-      <c r="AB5" s="55">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="55">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="55" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE5" s="55" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF5" s="62">
-        <v>283500</v>
-      </c>
-      <c r="AG5" s="55">
-        <v>360</v>
-      </c>
-      <c r="AH5" s="63">
-        <v>44734</v>
-      </c>
-      <c r="AI5" s="63">
-        <v>55692</v>
-      </c>
-      <c r="AJ5" s="64">
-        <v>44774</v>
-      </c>
-      <c r="AK5" s="55">
-        <v>12</v>
-      </c>
-      <c r="AL5" s="65"/>
-      <c r="AN5" s="55" t="s">
-        <v>383</v>
-      </c>
-      <c r="AP5" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="AQ5" s="81">
-        <v>2835</v>
-      </c>
-      <c r="AS5" s="62">
-        <v>405000</v>
-      </c>
-      <c r="AT5" s="62">
-        <v>450000</v>
-      </c>
-      <c r="AW5" s="55">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="55">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="55" t="s">
-        <v>385</v>
-      </c>
-      <c r="AZ5" s="55">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="62">
-        <v>283500</v>
-      </c>
-      <c r="BB5" s="58">
-        <v>5.375</v>
-      </c>
-      <c r="BC5" s="64">
-        <v>44774</v>
-      </c>
-      <c r="BD5" s="62">
-        <v>1587.52</v>
-      </c>
-      <c r="BE5" s="62">
-        <v>468.75</v>
-      </c>
-      <c r="BF5" s="67">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="67">
-        <v>148.33000000000001</v>
-      </c>
-      <c r="BH5" s="67">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="66">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="66">
-        <v>617.08000000000004</v>
-      </c>
-      <c r="BK5" s="66">
-        <v>2204.6</v>
-      </c>
-      <c r="BL5" s="68">
-        <v>380.95</v>
-      </c>
-      <c r="BM5" s="66">
-        <v>1234.2</v>
-      </c>
-      <c r="BN5" s="65"/>
-      <c r="BO5" s="65"/>
-      <c r="BP5" s="68">
-        <v>380.95</v>
-      </c>
-      <c r="BQ5" s="65"/>
-      <c r="BR5" s="65"/>
-      <c r="BS5" s="65"/>
-      <c r="BT5" s="65"/>
-      <c r="BU5" s="65"/>
-      <c r="BV5" s="65"/>
-      <c r="BW5" s="65"/>
-      <c r="BX5" s="65"/>
-      <c r="BY5" s="65"/>
-      <c r="BZ5" s="65"/>
-      <c r="CD5" s="55" t="s">
-        <v>386</v>
-      </c>
-      <c r="CE5" s="55" t="s">
-        <v>387</v>
-      </c>
-      <c r="CF5" s="55">
-        <v>9</v>
-      </c>
-      <c r="CJ5" s="55" t="s">
-        <v>388</v>
-      </c>
-      <c r="CK5" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="CL5" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="CN5" s="64">
-        <v>44835</v>
-      </c>
-      <c r="CO5" s="69">
-        <v>1410</v>
-      </c>
-      <c r="CP5" s="70"/>
-      <c r="CS5" s="71"/>
-      <c r="CU5" s="55">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="72"/>
-      <c r="CY5" s="65"/>
-      <c r="CZ5" s="72"/>
-      <c r="DA5" s="73"/>
-      <c r="DD5" s="82" t="s">
-        <v>434</v>
-      </c>
-      <c r="DE5" s="74">
-        <v>44734</v>
-      </c>
-      <c r="DF5" s="55" t="s">
-        <v>394</v>
-      </c>
-      <c r="DG5" s="55" t="s">
-        <v>393</v>
-      </c>
-      <c r="EJ5" s="58">
-        <v>1009401</v>
-      </c>
-      <c r="EL5" s="63">
-        <v>44734</v>
-      </c>
-      <c r="EM5" s="55">
-        <v>0</v>
-      </c>
-      <c r="EN5" s="55" t="s">
-        <v>399</v>
-      </c>
-      <c r="EO5" s="55" t="s">
-        <v>391</v>
-      </c>
-      <c r="EP5" s="75" t="s">
-        <v>398</v>
-      </c>
-      <c r="EQ5" s="74">
-        <v>44705</v>
-      </c>
-      <c r="ER5" s="76">
-        <v>445409</v>
-      </c>
-      <c r="ES5" s="77">
-        <v>131</v>
-      </c>
-      <c r="ET5" s="55" t="s">
-        <v>397</v>
-      </c>
-      <c r="EU5" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="EV5" s="55" t="s">
-        <v>382</v>
-      </c>
-      <c r="EW5" s="74">
-        <v>41535</v>
-      </c>
-      <c r="EY5" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="EZ5" s="55">
-        <v>1429928913</v>
-      </c>
-      <c r="FA5" s="74">
-        <v>41535</v>
-      </c>
-      <c r="FZ5" s="64">
-        <v>30943</v>
-      </c>
-      <c r="GA5" s="64">
-        <v>34300</v>
-      </c>
-      <c r="GD5" s="58" t="s">
-        <v>429</v>
-      </c>
-      <c r="GE5" s="79" t="s">
-        <v>396</v>
-      </c>
-      <c r="GF5" s="55">
-        <v>12</v>
-      </c>
-      <c r="GG5" s="55">
-        <v>6</v>
-      </c>
-      <c r="GH5" s="79" t="s">
-        <v>397</v>
-      </c>
-      <c r="GI5" s="62">
-        <v>283500</v>
-      </c>
-      <c r="GJ5" s="66">
-        <v>1780</v>
-      </c>
-      <c r="GK5" s="74">
-        <v>45093</v>
-      </c>
-      <c r="GL5" s="55" t="s">
-        <v>431</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:FA1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:FA25">
@@ -7586,40 +6385,27 @@
   </autoFilter>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="144" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="145" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="144" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="145" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="FC1:FM1">
-    <cfRule type="duplicateValues" dxfId="9" priority="142" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="143" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="142" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="143" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="FN1:FQ1">
-    <cfRule type="duplicateValues" dxfId="7" priority="140" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="141" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="140" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="141" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="FR1:FS1">
-    <cfRule type="duplicateValues" dxfId="5" priority="138" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="139" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="138" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="139" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="FT1">
-    <cfRule type="duplicateValues" dxfId="3" priority="136" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="137" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG4:BG5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="136" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="137" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="DD3:DD5" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>